--- a/boards/shields/soflejoy/sofle_keymaps.xlsx
+++ b/boards/shields/soflejoy/sofle_keymaps.xlsx
@@ -332,6 +332,9 @@
     <t xml:space="preserve">mkp MCLK</t>
   </si>
   <si>
+    <t xml:space="preserve">kp C_MUTE </t>
+  </si>
+  <si>
     <t xml:space="preserve">kp LEFT_BRACKET   </t>
   </si>
   <si>
@@ -503,6 +506,9 @@
     <t xml:space="preserve">none </t>
   </si>
   <si>
+    <t xml:space="preserve">bt BT_CLR_ALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">rgb_ug RGB_BRD</t>
   </si>
   <si>
@@ -522,12 +528,6 @@
   </si>
   <si>
     <t xml:space="preserve">none            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgb_ug RGB_TOG             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp C_MUTE        </t>
   </si>
   <si>
     <t xml:space="preserve">ext_power EP_TOG </t>
@@ -751,7 +751,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="C3 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="C3 K9"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,10 +1450,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>14</v>
@@ -1462,13 +1462,13 @@
         <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>100</v>
@@ -1488,7 +1488,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>100</v>
@@ -1503,7 +1503,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="1" sqref="C3 J8"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,34 +1576,34 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -1614,37 +1614,37 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>94</v>
@@ -1652,34 +1652,34 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -1693,40 +1693,40 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>100</v>
@@ -1746,7 +1746,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>100</v>
@@ -1761,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="C3 H6"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1834,186 +1834,186 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>14</v>

--- a/boards/shields/soflejoy/sofle_keymaps.xlsx
+++ b/boards/shields/soflejoy/sofle_keymaps.xlsx
@@ -293,9 +293,6 @@
     <t xml:space="preserve">msc SCRL_LEFT</t>
   </si>
   <si>
-    <t xml:space="preserve">mmv MOVE_UP   </t>
-  </si>
-  <si>
     <t xml:space="preserve">msc SCRL_RIGHT</t>
   </si>
   <si>
@@ -311,124 +308,127 @@
     <t xml:space="preserve">kp DEL</t>
   </si>
   <si>
+    <t xml:space="preserve">mkp MCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msc SCRL_DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp PIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmv MOVE_LEFT </t>
   </si>
   <si>
-    <t xml:space="preserve">mmv MOVE_DOWN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmv MOVE_RIGHT                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">msc SCRL_DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp PIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkp MCLK</t>
+    <t xml:space="preserve">mmv MOVE_DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmv MOVE_UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmv MOVE_RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp LEFT_BRACKET   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp RIGHT_BRACKET   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp BACKSLASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp RGUI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp PSCRN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">none       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">none          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp HOME  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_NUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_DIVIDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_MULTIPLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_MINUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp PAUSE_BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp UP      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp PG_UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N8     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N9       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_PLUS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp INS     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp LEFT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp DOWN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp RIGHT      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp PG_DN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N5     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp KP_N6       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp K_UNDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp K_CUT   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp K_COPY     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp K_PASTE    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp END</t>
   </si>
   <si>
     <t xml:space="preserve">kp C_MUTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp LEFT_BRACKET   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp RIGHT_BRACKET   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp BACKSLASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp RGUI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp PSCRN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">none       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">none          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp HOME  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_NUM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_DIVIDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_MULTIPLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_MINUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp PAUSE_BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp UP      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp PG_UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N8     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N9       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_PLUS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp INS     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp LEFT    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp DOWN    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp RIGHT      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp PG_DN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N5     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp KP_N6       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp K_UNDO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp K_CUT   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp K_COPY     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp K_PASTE    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp END</t>
   </si>
   <si>
     <t xml:space="preserve">kp KP_N1  </t>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1365,31 +1365,31 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,107 +1400,107 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>14</v>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,34 +1576,34 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -1614,104 +1614,104 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>135</v>
@@ -1726,39 +1726,39 @@
         <v>138</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>139</v>
